--- a/fuentes/contenidos/grado08/guion05/FormatoSolicitudVideos CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/FormatoSolicitudVideos CN_08_05_CO.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Área</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>El aparato reproductor femenino</t>
+  </si>
+  <si>
+    <t>La fecundación in vitro</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -451,7 +454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,15 +592,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>

--- a/fuentes/contenidos/grado08/guion05/FormatoSolicitudVideos CN_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/FormatoSolicitudVideos CN_08_05_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9705"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Área</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>La fecundación in vitro</t>
+  </si>
+  <si>
+    <t>Media principal</t>
+  </si>
+  <si>
+    <t>Cambiar acento. Se encuentra en 3° ESO/ Biología y geología/ La reproducción y la sexualidad/ El aparato reproductor masculino</t>
+  </si>
+  <si>
+    <t>Cambiar acento. Se encuentra en 3° ESO/ Biología y geología/ La reproducción y la sexualidad/ El aparato reproductor femenino</t>
+  </si>
+  <si>
+    <t>an001020</t>
+  </si>
+  <si>
+    <t>Cambiar acento. Se encuentra en 3° ESO/ Biología y geología/ La reproducción y la sexualidad/La fecundación, el embarazo y el parto</t>
+  </si>
+  <si>
+    <t>Cambiar acento. Se encuentra en 3° ESO/ Biología y geología/ La reproducción y la sexualidad/ Profundiza sobre la reproducción asistida</t>
   </si>
 </sst>
 </file>
@@ -454,7 +472,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -541,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -557,9 +575,11 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -568,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -589,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -613,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
@@ -786,7 +806,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -796,7 +816,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -806,7 +826,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
